--- a/cfg/MCOD_VariableNames.xlsx
+++ b/cfg/MCOD_VariableNames.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amt/Dropbox/MCOD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amt/Dropbox/MCOD/Obesity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57858138-52D5-C648-B305-6FC512C3F1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4FDBA-CC8C-7941-925D-51CF22284870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48160" yWindow="1880" windowWidth="19040" windowHeight="14320" xr2:uid="{F07C1945-7FB2-E540-910A-2F2F42269052}"/>
+    <workbookView xWindow="-35760" yWindow="640" windowWidth="28800" windowHeight="16360" xr2:uid="{F07C1945-7FB2-E540-910A-2F2F42269052}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Updated - Oct 2022" sheetId="2" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>Masters</t>
   </si>
@@ -280,12 +281,84 @@
   <si>
     <t>1=male, 0=female</t>
   </si>
+  <si>
+    <t>COVID deaths</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>ac8</t>
+  </si>
+  <si>
+    <t>ad8</t>
+  </si>
+  <si>
+    <t>gbd8</t>
+  </si>
+  <si>
+    <t>o8</t>
+  </si>
+  <si>
+    <t>Obesity as CC</t>
+  </si>
+  <si>
+    <t>cc1</t>
+  </si>
+  <si>
+    <t>cc2</t>
+  </si>
+  <si>
+    <t>cc3</t>
+  </si>
+  <si>
+    <t>cc4</t>
+  </si>
+  <si>
+    <t>cc5</t>
+  </si>
+  <si>
+    <t>cc6</t>
+  </si>
+  <si>
+    <t>cc7</t>
+  </si>
+  <si>
+    <t>cc8</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
+    <t>ac9</t>
+  </si>
+  <si>
+    <t>ad9</t>
+  </si>
+  <si>
+    <t>cc9</t>
+  </si>
+  <si>
+    <t>o9</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>Lower Respiratory Diseases</t>
+  </si>
+  <si>
+    <t>Infectious/Parasitic Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancers </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +378,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -450,12 +529,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -468,54 +547,66 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,11 +920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B15ED-E95B-244D-B364-8EED8F15B6A1}">
-  <dimension ref="B2:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDC445-B763-0E43-B97D-1833E7E08DFB}">
+  <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,20 +940,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -880,6 +971,323 @@
         <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="B16:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B15ED-E95B-244D-B364-8EED8F15B6A1}">
+  <dimension ref="B2:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1107,37 +1515,49 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1145,25 +1565,23 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -1171,17 +1589,17 @@
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1189,74 +1607,84 @@
       <c r="G22" s="22"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>69</v>
-      </c>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B16:G19"/>
-    <mergeCell ref="B20:G21"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="B17:G20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="B25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
